--- a/Code/Results/Cases/Case_9_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.46677384630982</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274226</v>
+        <v>1.019169272890139</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.04824190763466873</v>
       </c>
       <c r="E2">
-        <v>1.441922359378012</v>
+        <v>1.35169962688731</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.5084535737087279</v>
       </c>
       <c r="G2">
-        <v>0.0007686809952637855</v>
+        <v>0.0007896385517037115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01092094002687105</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003536527785124033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.435151477765999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293328</v>
+        <v>3.02011174815118</v>
       </c>
       <c r="C3">
-        <v>0.8738301893891673</v>
+        <v>0.8990605546520669</v>
       </c>
       <c r="D3">
-        <v>0.03462429524203259</v>
+        <v>0.0433835340809452</v>
       </c>
       <c r="E3">
-        <v>1.235854890260782</v>
+        <v>1.176740016824183</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.468187038062311</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087419503</v>
+        <v>0.000793366441376707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00766975902495437</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001965288275290966</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.348594257482659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389137</v>
+        <v>2.745669458445775</v>
       </c>
       <c r="C4">
-        <v>0.7993378641016591</v>
+        <v>0.8258832939075091</v>
       </c>
       <c r="D4">
-        <v>0.03195374705860843</v>
+        <v>0.04041041276209967</v>
       </c>
       <c r="E4">
-        <v>1.112018506115731</v>
+        <v>1.069666178277558</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.4441198563540496</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430916593</v>
+        <v>0.0007957272508090085</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005904022270549425</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001270814676121557</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.046477410931772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.297464469391542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378635</v>
+        <v>2.633730900298815</v>
       </c>
       <c r="C5">
-        <v>0.7690066449735298</v>
+        <v>0.7977722387358028</v>
       </c>
       <c r="D5">
-        <v>0.03086722398415276</v>
+        <v>0.03928077046956702</v>
       </c>
       <c r="E5">
-        <v>1.062125557461115</v>
+        <v>1.02608314129057</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.4336700664951891</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445427952</v>
+        <v>0.0007967124296093884</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00523637476029204</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001110499418202515</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.274436995028537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.615103766652396</v>
       </c>
       <c r="C6">
-        <v>0.7639712490239674</v>
+        <v>0.7950489896263662</v>
       </c>
       <c r="D6">
-        <v>0.03068689589320428</v>
+        <v>0.03919122151063448</v>
       </c>
       <c r="E6">
-        <v>1.053872496020546</v>
+        <v>1.018830727099584</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.4309748955527013</v>
       </c>
       <c r="G6">
-        <v>0.000779081286801657</v>
+        <v>0.0007968828780179578</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005126972417599962</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001168165231651308</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.267397047251904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127143</v>
+        <v>2.74406360535454</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678387</v>
+        <v>0.8308092758339853</v>
       </c>
       <c r="D7">
-        <v>0.03193908754566621</v>
+        <v>0.04066341026042863</v>
       </c>
       <c r="E7">
-        <v>1.111343450545846</v>
+        <v>1.069026406947373</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.4413300423773592</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703471185</v>
+        <v>0.0007957557770997617</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005890106154369357</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001472853056091239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.28828808501018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237348</v>
+        <v>3.312653545137607</v>
       </c>
       <c r="C8">
-        <v>0.9534495003956067</v>
+        <v>0.9847298999007421</v>
       </c>
       <c r="D8">
-        <v>0.03748176335487585</v>
+        <v>0.04692401796475565</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.291216389130142</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042933</v>
+        <v>0.4909136236972671</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717353615</v>
+        <v>0.0007909279253908628</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009741767389663553</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003174773938467546</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.393125671300481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864412</v>
+        <v>4.427610317638539</v>
       </c>
       <c r="C9">
-        <v>1.25854120576895</v>
+        <v>1.282110248089054</v>
       </c>
       <c r="D9">
-        <v>0.04845951825805628</v>
+        <v>0.0588090931990024</v>
       </c>
       <c r="E9">
-        <v>1.904628270821107</v>
+        <v>1.730915313986756</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.5988199823157387</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395391445</v>
+        <v>0.0007819898167375172</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01935802986678037</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008607690668569923</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.471852032810375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.632718893241275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806890804</v>
+        <v>5.24749449069725</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.50644471872306</v>
       </c>
       <c r="D10">
-        <v>0.05664530721055883</v>
+        <v>0.06925275944912102</v>
       </c>
       <c r="E10">
-        <v>2.322005527160329</v>
+        <v>1.955498156088424</v>
       </c>
       <c r="F10">
-        <v>0.6788586430795363</v>
+        <v>0.6683724546327312</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425436127</v>
+        <v>0.0007759177289413412</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02725836382229918</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0143664161419883</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.775547518866148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351865</v>
+        <v>5.612142301903873</v>
       </c>
       <c r="C11">
-        <v>1.589203920418356</v>
+        <v>1.610434802784823</v>
       </c>
       <c r="D11">
-        <v>0.06040982474324608</v>
+        <v>0.08861588644301577</v>
       </c>
       <c r="E11">
-        <v>2.519515414215107</v>
+        <v>1.267337406619561</v>
       </c>
       <c r="F11">
-        <v>0.7310970168233126</v>
+        <v>0.5871507068896307</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524084341</v>
+        <v>0.0007746196692268896</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04270868006982909</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01643561128637661</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.474547141099578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319245</v>
+        <v>5.74725555498668</v>
       </c>
       <c r="C12">
-        <v>1.628738126228427</v>
+        <v>1.642389293035194</v>
       </c>
       <c r="D12">
-        <v>0.06184261659738866</v>
+        <v>0.1037805964393641</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>0.7713189373199754</v>
       </c>
       <c r="F12">
-        <v>0.7514676455013642</v>
+        <v>0.5121260620343264</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563734144</v>
+        <v>0.0007745905169331831</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07854308646568597</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01664005842228544</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.224683832186997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065252074</v>
+        <v>5.71206086016997</v>
       </c>
       <c r="C13">
-        <v>1.62021628777336</v>
+        <v>1.628934670659646</v>
       </c>
       <c r="D13">
-        <v>0.0615336923972265</v>
+        <v>0.1168170525753141</v>
       </c>
       <c r="E13">
-        <v>2.579174270918756</v>
+        <v>0.3948377359290731</v>
       </c>
       <c r="F13">
-        <v>0.7470530197557252</v>
+        <v>0.4334589186537912</v>
       </c>
       <c r="G13">
-        <v>0.0007429505859019447</v>
+        <v>0.0007755528712741501</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1314041879758321</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01567717074598907</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9858811040282944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.981994411985397</v>
+        <v>5.610402796626545</v>
       </c>
       <c r="C14">
-        <v>1.59245311887048</v>
+        <v>1.600782500645209</v>
       </c>
       <c r="D14">
-        <v>0.06052754737639532</v>
+        <v>0.1251548963565625</v>
       </c>
       <c r="E14">
-        <v>2.525749484437696</v>
+        <v>0.2040035724406977</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.3772055239524477</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843727255</v>
+        <v>0.0007766576504858142</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1788295655706946</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01459786682350295</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8260307867355579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981730897</v>
+        <v>5.549222564864976</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.586479300100507</v>
       </c>
       <c r="D15">
-        <v>0.05991224352278834</v>
+        <v>0.1266680095887693</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>0.1664673984577796</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.361549071281118</v>
       </c>
       <c r="G15">
-        <v>0.000744721346776587</v>
+        <v>0.0007771664842525621</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1906857109769646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01418120435697556</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7848470606577962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.53363491942747</v>
+        <v>5.202401853822494</v>
       </c>
       <c r="C16">
-        <v>1.478438606471798</v>
+        <v>1.495615476278033</v>
       </c>
       <c r="D16">
-        <v>0.05640022152631019</v>
+        <v>0.1191748546277722</v>
       </c>
       <c r="E16">
-        <v>2.309269822762175</v>
+        <v>0.1619581450697751</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628423</v>
+        <v>0.3473887037929586</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130532989</v>
+        <v>0.0007795445118418047</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.175491235802042</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01192358401845794</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7706965671103063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728546</v>
+        <v>4.991035451832488</v>
       </c>
       <c r="C17">
-        <v>1.419157990854444</v>
+        <v>1.441267988981963</v>
       </c>
       <c r="D17">
-        <v>0.05425707574409699</v>
+        <v>0.1089952125854552</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>0.2459753982704243</v>
       </c>
       <c r="F17">
-        <v>0.6467009445061791</v>
+        <v>0.365796307107324</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215070161</v>
+        <v>0.000780802229109395</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1367689001963726</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01081278822335374</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8422055574621652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104238</v>
+        <v>4.871728470037112</v>
       </c>
       <c r="C18">
-        <v>1.385141676507658</v>
+        <v>1.407347280808153</v>
       </c>
       <c r="D18">
-        <v>0.05302813720694388</v>
+        <v>0.09563455489917061</v>
       </c>
       <c r="E18">
-        <v>2.135550865997416</v>
+        <v>0.4790218023010837</v>
       </c>
       <c r="F18">
-        <v>0.6304566638523852</v>
+        <v>0.4181691898324047</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468301177</v>
+        <v>0.0007811315644281613</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08461431799794639</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01026415122278657</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.011170216096644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647344</v>
+        <v>4.83500880465499</v>
       </c>
       <c r="C19">
-        <v>1.373637281602043</v>
+        <v>1.40339474351282</v>
       </c>
       <c r="D19">
-        <v>0.05261264338035687</v>
+        <v>0.08223365033970964</v>
       </c>
       <c r="E19">
-        <v>2.114339516159717</v>
+        <v>0.9131096264680565</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.4940337535870114</v>
       </c>
       <c r="G19">
-        <v>0.0007528199807482719</v>
+        <v>0.0007805737522911431</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0420758044946794</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01072812603060136</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.251779364725252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771633</v>
+        <v>5.031627643970751</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.464437765624723</v>
       </c>
       <c r="D20">
-        <v>0.05448482054296733</v>
+        <v>0.06744620694644254</v>
       </c>
       <c r="E20">
-        <v>2.210250434711142</v>
+        <v>1.891890550245648</v>
       </c>
       <c r="F20">
-        <v>0.6497341005681392</v>
+        <v>0.6409981226065185</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798648098</v>
+        <v>0.0007775358304290444</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02500230937025849</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01333659226125761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663351909176043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.707873429777266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798156</v>
+        <v>5.663603663768583</v>
       </c>
       <c r="C21">
-        <v>1.600603352844928</v>
+        <v>1.636139845533137</v>
       </c>
       <c r="D21">
-        <v>0.06082286766925193</v>
+        <v>0.07300782904698622</v>
       </c>
       <c r="E21">
-        <v>2.541403832657366</v>
+        <v>2.224275313971731</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503735</v>
+        <v>0.7181090159483858</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231604488</v>
+        <v>0.0007726865873697398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03281830044685519</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01854060229383236</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.895197017569245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405798</v>
+        <v>6.077296100170315</v>
       </c>
       <c r="C22">
-        <v>1.715993697539091</v>
+        <v>1.741715857843474</v>
       </c>
       <c r="D22">
-        <v>0.06500821190251571</v>
+        <v>0.07705961331203781</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.390794747381719</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.7665380570823004</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033399157</v>
+        <v>0.000769642109448282</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03795447932891705</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02207615676014552</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.010982655735347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>5.856533976777541</v>
       </c>
       <c r="C23">
-        <v>1.654312258275127</v>
+        <v>1.678693843975964</v>
       </c>
       <c r="D23">
-        <v>0.06276995956053355</v>
+        <v>0.0745603636229859</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.301860511110718</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224749</v>
+        <v>0.7437029678328884</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873020089</v>
+        <v>0.0007712498272074986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03518443906473134</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01990882957891671</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.959238721746175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.022345505370311</v>
       </c>
       <c r="C24">
-        <v>1.422610659040799</v>
+        <v>1.452387582760707</v>
       </c>
       <c r="D24">
-        <v>0.0543818473026505</v>
+        <v>0.0656626206233426</v>
       </c>
       <c r="E24">
-        <v>2.204952766859662</v>
+        <v>1.967538615152051</v>
       </c>
       <c r="F24">
-        <v>0.6483618008775949</v>
+        <v>0.6548386594035378</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954645825</v>
+        <v>0.0007774558731151467</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02548343545092102</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01297716825878936</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.754635322995938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.34516289540062</v>
+        <v>4.125615602166818</v>
       </c>
       <c r="C25">
-        <v>1.175662098009525</v>
+        <v>1.210872665251486</v>
       </c>
       <c r="D25">
-        <v>0.04547296341502971</v>
+        <v>0.05608168448596018</v>
       </c>
       <c r="E25">
-        <v>1.75639716116838</v>
+        <v>1.611287029704712</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.5640920550256467</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889205</v>
+        <v>0.0007843738772956623</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01649207729639268</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007186637996994705</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425194</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.549647283128024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.46677384630982</v>
+        <v>0.9417071573089402</v>
       </c>
       <c r="C2">
-        <v>1.019169272890139</v>
+        <v>0.1696541256453514</v>
       </c>
       <c r="D2">
-        <v>0.04824190763466873</v>
+        <v>0.09498689929725401</v>
       </c>
       <c r="E2">
-        <v>1.35169962688731</v>
+        <v>0.06031253398336034</v>
       </c>
       <c r="F2">
-        <v>0.5084535737087279</v>
+        <v>0.7482018071317427</v>
       </c>
       <c r="G2">
-        <v>0.0007896385517037115</v>
+        <v>0.4866035731314398</v>
       </c>
       <c r="H2">
-        <v>0.01092094002687105</v>
+        <v>0.01643781421194312</v>
       </c>
       <c r="I2">
-        <v>0.003536527785124033</v>
+        <v>0.01940450721135889</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.425235936559524</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07694100815397231</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8093423815752487</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1297139995274392</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1945530817500689</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.435151477765999</v>
+        <v>1.867177054595061</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.02011174815118</v>
+        <v>0.820617493405166</v>
       </c>
       <c r="C3">
-        <v>0.8990605546520669</v>
+        <v>0.1654185636844829</v>
       </c>
       <c r="D3">
-        <v>0.0433835340809452</v>
+        <v>0.08611366260664255</v>
       </c>
       <c r="E3">
-        <v>1.176740016824183</v>
+        <v>0.05791489422945162</v>
       </c>
       <c r="F3">
-        <v>0.468187038062311</v>
+        <v>0.738365388376593</v>
       </c>
       <c r="G3">
-        <v>0.000793366441376707</v>
+        <v>0.4831774828794195</v>
       </c>
       <c r="H3">
-        <v>0.00766975902495437</v>
+        <v>0.01946303665535387</v>
       </c>
       <c r="I3">
-        <v>0.001965288275290966</v>
+        <v>0.02264893922429367</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4278528256383325</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07540234676346724</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7093533814056627</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1163076333638386</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1702471130496939</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.348594257482659</v>
+        <v>1.865116760251865</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.745669458445775</v>
+        <v>0.746024979955763</v>
       </c>
       <c r="C4">
-        <v>0.8258832939075091</v>
+        <v>0.162825761068234</v>
       </c>
       <c r="D4">
-        <v>0.04041041276209967</v>
+        <v>0.08069743333881974</v>
       </c>
       <c r="E4">
-        <v>1.069666178277558</v>
+        <v>0.05642847392143935</v>
       </c>
       <c r="F4">
-        <v>0.4441198563540496</v>
+        <v>0.7327742176617917</v>
       </c>
       <c r="G4">
-        <v>0.0007957272508090085</v>
+        <v>0.4814271478356105</v>
       </c>
       <c r="H4">
-        <v>0.005904022270549425</v>
+        <v>0.02152424754013149</v>
       </c>
       <c r="I4">
-        <v>0.001270814676121557</v>
+        <v>0.02488152518022391</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4297059235711629</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07441575574503467</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6479447768988535</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1081320211539918</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1553196948219266</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.297464469391542</v>
+        <v>1.865109055117983</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.633730900298815</v>
+        <v>0.7152247465356254</v>
       </c>
       <c r="C5">
-        <v>0.7977722387358028</v>
+        <v>0.1618914234920581</v>
       </c>
       <c r="D5">
-        <v>0.03928077046956702</v>
+        <v>0.07852617455930755</v>
       </c>
       <c r="E5">
-        <v>1.02608314129057</v>
+        <v>0.05579180020235874</v>
       </c>
       <c r="F5">
-        <v>0.4336700664951891</v>
+        <v>0.7300788226928958</v>
       </c>
       <c r="G5">
-        <v>0.0007967124296093884</v>
+        <v>0.4803538817431203</v>
       </c>
       <c r="H5">
-        <v>0.00523637476029204</v>
+        <v>0.02241962870013103</v>
       </c>
       <c r="I5">
-        <v>0.001110499418202515</v>
+        <v>0.02594524038684876</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4302873734991408</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07397023894327148</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.623243555776682</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.104951661794388</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1492561182170355</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.274436995028537</v>
+        <v>1.863976991698351</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.615103766652396</v>
+        <v>0.7096903987615804</v>
       </c>
       <c r="C6">
-        <v>0.7950489896263662</v>
+        <v>0.1618863709060108</v>
       </c>
       <c r="D6">
-        <v>0.03919122151063448</v>
+        <v>0.07820074970776147</v>
       </c>
       <c r="E6">
-        <v>1.018830727099584</v>
+        <v>0.0556525093748732</v>
       </c>
       <c r="F6">
-        <v>0.4309748955527013</v>
+        <v>0.7289938004245258</v>
       </c>
       <c r="G6">
-        <v>0.0007968828780179578</v>
+        <v>0.4796356913570747</v>
       </c>
       <c r="H6">
-        <v>0.005126972417599962</v>
+        <v>0.02257818909237502</v>
       </c>
       <c r="I6">
-        <v>0.001168165231651308</v>
+        <v>0.02624876930242248</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.430100948948116</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07385560026914106</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6195470896362707</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1045937911042856</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1482750553684973</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.267397047251904</v>
+        <v>1.862051454514798</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74406360535454</v>
+        <v>0.7444692231207455</v>
       </c>
       <c r="C7">
-        <v>0.8308092758339853</v>
+        <v>0.1632255683476487</v>
       </c>
       <c r="D7">
-        <v>0.04066341026042863</v>
+        <v>0.08076290130065189</v>
       </c>
       <c r="E7">
-        <v>1.069026406947373</v>
+        <v>0.0563290320646832</v>
       </c>
       <c r="F7">
-        <v>0.4413300423773592</v>
+        <v>0.7309819912026754</v>
       </c>
       <c r="G7">
-        <v>0.0007957557770997617</v>
+        <v>0.479926397103057</v>
       </c>
       <c r="H7">
-        <v>0.005890106154369357</v>
+        <v>0.02155415576421987</v>
       </c>
       <c r="I7">
-        <v>0.001472853056091239</v>
+        <v>0.02521528645035787</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4289334365865329</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0743011807324212</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6487234204022911</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1085525201031103</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.155308681604712</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.28828808501018</v>
+        <v>1.860308530672114</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.312653545137607</v>
+        <v>0.8984780025079431</v>
       </c>
       <c r="C8">
-        <v>0.9847298999007421</v>
+        <v>0.1687548586148324</v>
       </c>
       <c r="D8">
-        <v>0.04692401796475565</v>
+        <v>0.09204643649252375</v>
       </c>
       <c r="E8">
-        <v>1.291216389130142</v>
+        <v>0.05936943888203494</v>
       </c>
       <c r="F8">
-        <v>0.4909136236972671</v>
+        <v>0.7424099674892872</v>
       </c>
       <c r="G8">
-        <v>0.0007909279253908628</v>
+        <v>0.4833964957175425</v>
       </c>
       <c r="H8">
-        <v>0.009741767389663553</v>
+        <v>0.01745781114143791</v>
       </c>
       <c r="I8">
-        <v>0.003174773938467546</v>
+        <v>0.02085696529935532</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4250671819181306</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07627873923416484</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7763535967506812</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1256961014428128</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.1862660766595639</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.393125671300481</v>
+        <v>1.859930568287297</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.427610317638539</v>
+        <v>1.200753998612726</v>
       </c>
       <c r="C9">
-        <v>1.282110248089054</v>
+        <v>0.17893657401018</v>
       </c>
       <c r="D9">
-        <v>0.0588090931990024</v>
+        <v>0.1142785804782136</v>
       </c>
       <c r="E9">
-        <v>1.730915313986756</v>
+        <v>0.06538365049421557</v>
       </c>
       <c r="F9">
-        <v>0.5988199823157387</v>
+        <v>0.7716241621933264</v>
       </c>
       <c r="G9">
-        <v>0.0007819898167375172</v>
+        <v>0.4957639392004083</v>
       </c>
       <c r="H9">
-        <v>0.01935802986678037</v>
+        <v>0.01108473198538022</v>
       </c>
       <c r="I9">
-        <v>0.008607690668569923</v>
+        <v>0.0138048025703057</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4208632791926732</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08001860454895393</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.024709385809473</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1589734572286403</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2468624527385792</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.632718893241275</v>
+        <v>1.877996803122926</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.24749449069725</v>
+        <v>1.419935245186508</v>
       </c>
       <c r="C10">
-        <v>1.50644471872306</v>
+        <v>0.1878047377383965</v>
       </c>
       <c r="D10">
-        <v>0.06925275944912102</v>
+        <v>0.129095512144545</v>
       </c>
       <c r="E10">
-        <v>1.955498156088424</v>
+        <v>0.06788850536220892</v>
       </c>
       <c r="F10">
-        <v>0.6683724546327312</v>
+        <v>0.785296308356763</v>
       </c>
       <c r="G10">
-        <v>0.0007759177289413412</v>
+        <v>0.4994936341766021</v>
       </c>
       <c r="H10">
-        <v>0.02725836382229918</v>
+        <v>0.007898246866020031</v>
       </c>
       <c r="I10">
-        <v>0.0143664161419883</v>
+        <v>0.01016098367693896</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4153108859540566</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08141299642122846</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.211890313167345</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1780029758117934</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.2882114582683286</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.775547518866148</v>
+        <v>1.874719095218609</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.612142301903873</v>
+        <v>1.505018395588223</v>
       </c>
       <c r="C11">
-        <v>1.610434802784823</v>
+        <v>0.2036424558754248</v>
       </c>
       <c r="D11">
-        <v>0.08861588644301577</v>
+        <v>0.1208909742006767</v>
       </c>
       <c r="E11">
-        <v>1.267337406619561</v>
+        <v>0.0553089039018122</v>
       </c>
       <c r="F11">
-        <v>0.5871507068896307</v>
+        <v>0.7105588413268507</v>
       </c>
       <c r="G11">
-        <v>0.0007746196692268896</v>
+        <v>0.4442871466683869</v>
       </c>
       <c r="H11">
-        <v>0.04270868006982909</v>
+        <v>0.02639583944051793</v>
       </c>
       <c r="I11">
-        <v>0.01643561128637661</v>
+        <v>0.009783350270025082</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3835572029468892</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07743758279394086</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.333084810843388</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1386413478769128</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.278782718819123</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.474547141099578</v>
+        <v>1.691378039482657</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.74725555498668</v>
+        <v>1.532137909101493</v>
       </c>
       <c r="C12">
-        <v>1.642389293035194</v>
+        <v>0.2166716419943526</v>
       </c>
       <c r="D12">
-        <v>0.1037805964393641</v>
+        <v>0.1109046607753044</v>
       </c>
       <c r="E12">
-        <v>0.7713189373199754</v>
+        <v>0.04711638011016017</v>
       </c>
       <c r="F12">
-        <v>0.5121260620343264</v>
+        <v>0.6500709347692535</v>
       </c>
       <c r="G12">
-        <v>0.0007745905169331831</v>
+        <v>0.4015429935423001</v>
       </c>
       <c r="H12">
-        <v>0.07854308646568597</v>
+        <v>0.06528495685797253</v>
       </c>
       <c r="I12">
-        <v>0.01664005842228544</v>
+        <v>0.009607202865859144</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3601159458053047</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08080520085595211</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.395616252749505</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1054991603738245</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2620922159748602</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.224683832186997</v>
+        <v>1.551743755329653</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.71206086016997</v>
+        <v>1.514134067347527</v>
       </c>
       <c r="C13">
-        <v>1.628934670659646</v>
+        <v>0.2287582450930046</v>
       </c>
       <c r="D13">
-        <v>0.1168170525753141</v>
+        <v>0.09917210279439814</v>
       </c>
       <c r="E13">
-        <v>0.3948377359290731</v>
+        <v>0.04166161736517493</v>
       </c>
       <c r="F13">
-        <v>0.4334589186537912</v>
+        <v>0.5941923775402316</v>
       </c>
       <c r="G13">
-        <v>0.0007755528712741501</v>
+        <v>0.3634490217073605</v>
       </c>
       <c r="H13">
-        <v>0.1314041879758321</v>
+        <v>0.1215401241457386</v>
       </c>
       <c r="I13">
-        <v>0.01567717074598907</v>
+        <v>0.009996333722428474</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3403910659712608</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08963412487605993</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.417762841763732</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07609286487759448</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.2390795689945193</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9858811040282944</v>
+        <v>1.429661154019854</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.610402796626545</v>
+        <v>1.480760881544001</v>
       </c>
       <c r="C14">
-        <v>1.600782500645209</v>
+        <v>0.2371961357643215</v>
       </c>
       <c r="D14">
-        <v>0.1251548963565625</v>
+        <v>0.09030401636834284</v>
       </c>
       <c r="E14">
-        <v>0.2040035724406977</v>
+        <v>0.03945620297964147</v>
       </c>
       <c r="F14">
-        <v>0.3772055239524477</v>
+        <v>0.5574054169285461</v>
       </c>
       <c r="G14">
-        <v>0.0007766576504858142</v>
+        <v>0.3390410036091751</v>
       </c>
       <c r="H14">
-        <v>0.1788295655706946</v>
+        <v>0.1713583625086414</v>
       </c>
       <c r="I14">
-        <v>0.01459786682350295</v>
+        <v>0.01063197642930813</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3282983033491433</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09908680039127304</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.415295109346431</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05810334887608448</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2203083429382957</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8260307867355579</v>
+        <v>1.352538876051057</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.549222564864976</v>
+        <v>1.46258314619763</v>
       </c>
       <c r="C15">
-        <v>1.586479300100507</v>
+        <v>0.2390765472768663</v>
       </c>
       <c r="D15">
-        <v>0.1266680095887693</v>
+        <v>0.08779391169547779</v>
       </c>
       <c r="E15">
-        <v>0.1664673984577796</v>
+        <v>0.03913004970705267</v>
       </c>
       <c r="F15">
-        <v>0.361549071281118</v>
+        <v>0.5486262572871681</v>
       </c>
       <c r="G15">
-        <v>0.0007771664842525621</v>
+        <v>0.3334094862825054</v>
       </c>
       <c r="H15">
-        <v>0.1906857109769646</v>
+        <v>0.1841033125078013</v>
       </c>
       <c r="I15">
-        <v>0.01418120435697556</v>
+        <v>0.01105856467190769</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3258103747266716</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1016731242207136</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.406294609754099</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05401610491830411</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2144421676355925</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7848470606577962</v>
+        <v>1.33535717714831</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.202401853822494</v>
+        <v>1.371278539891961</v>
       </c>
       <c r="C16">
-        <v>1.495615476278033</v>
+        <v>0.2325391721370238</v>
       </c>
       <c r="D16">
-        <v>0.1191748546277722</v>
+        <v>0.08413122680703822</v>
       </c>
       <c r="E16">
-        <v>0.1619581450697751</v>
+        <v>0.03920338205613511</v>
       </c>
       <c r="F16">
-        <v>0.3473887037929586</v>
+        <v>0.5532010244864836</v>
       </c>
       <c r="G16">
-        <v>0.0007795445118418047</v>
+        <v>0.3385754460073898</v>
       </c>
       <c r="H16">
-        <v>0.175491235802042</v>
+        <v>0.1727159927280013</v>
       </c>
       <c r="I16">
-        <v>0.01192358401845794</v>
+        <v>0.01265294324228972</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3315362034658591</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09884671177848858</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.320603166561511</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05278526308030251</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2019888687062839</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7706965671103063</v>
+        <v>1.358111540031658</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.991035451832488</v>
+        <v>1.319060664197224</v>
       </c>
       <c r="C17">
-        <v>1.441267988981963</v>
+        <v>0.2229783281285336</v>
       </c>
       <c r="D17">
-        <v>0.1089952125854552</v>
+        <v>0.08597145859660316</v>
       </c>
       <c r="E17">
-        <v>0.2459753982704243</v>
+        <v>0.04016436083909913</v>
       </c>
       <c r="F17">
-        <v>0.365796307107324</v>
+        <v>0.5759652275337572</v>
       </c>
       <c r="G17">
-        <v>0.000780802229109395</v>
+        <v>0.3552972636549043</v>
       </c>
       <c r="H17">
-        <v>0.1367689001963726</v>
+        <v>0.1357427899214514</v>
       </c>
       <c r="I17">
-        <v>0.01081278822335374</v>
+        <v>0.01358435806113611</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3422983306002223</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09112851912048114</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.256467901842058</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06086465769069349</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2022965954852332</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8422055574621652</v>
+        <v>1.415983747417854</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.871728470037112</v>
+        <v>1.295302076389504</v>
       </c>
       <c r="C18">
-        <v>1.407347280808153</v>
+        <v>0.2100745630577592</v>
       </c>
       <c r="D18">
-        <v>0.09563455489917061</v>
+        <v>0.09285100619091935</v>
       </c>
       <c r="E18">
-        <v>0.4790218023010837</v>
+        <v>0.04342262917643858</v>
       </c>
       <c r="F18">
-        <v>0.4181691898324047</v>
+        <v>0.6196883293767712</v>
       </c>
       <c r="G18">
-        <v>0.0007811315644281613</v>
+        <v>0.3860876945198299</v>
       </c>
       <c r="H18">
-        <v>0.08461431799794639</v>
+        <v>0.08312667432142717</v>
       </c>
       <c r="I18">
-        <v>0.01026415122278657</v>
+        <v>0.01362784918198656</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.359676594513445</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0815233630351635</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.202997587916371</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08014457021660348</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2137279158880112</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.011170216096644</v>
+        <v>1.517588291973368</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.83500880465499</v>
+        <v>1.293750907614225</v>
       </c>
       <c r="C19">
-        <v>1.40339474351282</v>
+        <v>0.1983587463806131</v>
       </c>
       <c r="D19">
-        <v>0.08223365033970964</v>
+        <v>0.1037618292843518</v>
       </c>
       <c r="E19">
-        <v>0.9131096264680565</v>
+        <v>0.05031477767873582</v>
       </c>
       <c r="F19">
-        <v>0.4940337535870114</v>
+        <v>0.6772626850726056</v>
       </c>
       <c r="G19">
-        <v>0.0007805737522911431</v>
+        <v>0.4260421232334366</v>
       </c>
       <c r="H19">
-        <v>0.0420758044946794</v>
+        <v>0.03733561395963392</v>
       </c>
       <c r="I19">
-        <v>0.01072812603060136</v>
+        <v>0.01352667112499351</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3809731934813527</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07601626456822075</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.164938314012431</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1114765306164927</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2337948505526164</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.251779364725252</v>
+        <v>1.646872156421182</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031627643970751</v>
+        <v>1.358702264812507</v>
       </c>
       <c r="C20">
-        <v>1.464437765624723</v>
+        <v>0.1869840273369405</v>
       </c>
       <c r="D20">
-        <v>0.06744620694644254</v>
+        <v>0.1254172968599221</v>
       </c>
       <c r="E20">
-        <v>1.891890550245648</v>
+        <v>0.06688585488994647</v>
       </c>
       <c r="F20">
-        <v>0.6409981226065185</v>
+        <v>0.775833982170667</v>
       </c>
       <c r="G20">
-        <v>0.0007775358304290444</v>
+        <v>0.4936183605536968</v>
       </c>
       <c r="H20">
-        <v>0.02500230937025849</v>
+        <v>0.008680084732129778</v>
       </c>
       <c r="I20">
-        <v>0.01333659226125761</v>
+        <v>0.01195923391886566</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4142143977106869</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08070901264185082</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.166446482418309</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1741891357386933</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2774346557872605</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.707873429777266</v>
+        <v>1.859854067846214</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.663603663768583</v>
+        <v>1.529606697082983</v>
       </c>
       <c r="C21">
-        <v>1.636139845533137</v>
+        <v>0.1919523708338318</v>
       </c>
       <c r="D21">
-        <v>0.07300782904698622</v>
+        <v>0.1395246705126141</v>
       </c>
       <c r="E21">
-        <v>2.224275313971731</v>
+        <v>0.07164789551282169</v>
       </c>
       <c r="F21">
-        <v>0.7181090159483858</v>
+        <v>0.8028503333573411</v>
       </c>
       <c r="G21">
-        <v>0.0007726865873697398</v>
+        <v>0.5083722610849719</v>
       </c>
       <c r="H21">
-        <v>0.03281830044685519</v>
+        <v>0.006060903919771377</v>
       </c>
       <c r="I21">
-        <v>0.01854060229383236</v>
+        <v>0.009287827104346391</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4161478446082469</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08350638584906989</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.303698480292212</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1979569563433472</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3142256705506199</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.895197017569245</v>
+        <v>1.895511044043303</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.077296100170315</v>
+        <v>1.642029755815059</v>
       </c>
       <c r="C22">
-        <v>1.741715857843474</v>
+        <v>0.1951639062044919</v>
       </c>
       <c r="D22">
-        <v>0.07705961331203781</v>
+        <v>0.1477689244378837</v>
       </c>
       <c r="E22">
-        <v>2.390794747381719</v>
+        <v>0.07394561192824511</v>
       </c>
       <c r="F22">
-        <v>0.7665380570823004</v>
+        <v>0.8184446668894907</v>
       </c>
       <c r="G22">
-        <v>0.000769642109448282</v>
+        <v>0.516932060932362</v>
       </c>
       <c r="H22">
-        <v>0.03795447932891705</v>
+        <v>0.004751809706625199</v>
       </c>
       <c r="I22">
-        <v>0.02207615676014552</v>
+        <v>0.007488933591917935</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.416905108042144</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08486759886290507</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.393997161618273</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2098858458497972</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.3365482887485882</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.010982655735347</v>
+        <v>1.915452169677451</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.856533976777541</v>
+        <v>1.583435716815245</v>
       </c>
       <c r="C23">
-        <v>1.678693843975964</v>
+        <v>0.1928840468022486</v>
       </c>
       <c r="D23">
-        <v>0.0745603636229859</v>
+        <v>0.1432507557719163</v>
       </c>
       <c r="E23">
-        <v>2.301860511110718</v>
+        <v>0.07282401754072687</v>
       </c>
       <c r="F23">
-        <v>0.7437029678328884</v>
+        <v>0.8120775577016204</v>
       </c>
       <c r="G23">
-        <v>0.0007712498272074986</v>
+        <v>0.5140142822905887</v>
       </c>
       <c r="H23">
-        <v>0.03518443906473134</v>
+        <v>0.005419930648003279</v>
       </c>
       <c r="I23">
-        <v>0.01990882957891671</v>
+        <v>0.008074772582634004</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4173493663650447</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08426001615473133</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.344422654636531</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2029490551669824</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.3245479682444241</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.959238721746175</v>
+        <v>1.910085619964804</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.022345505370311</v>
+        <v>1.35916916701558</v>
       </c>
       <c r="C24">
-        <v>1.452387582760707</v>
+        <v>0.1852127049046217</v>
       </c>
       <c r="D24">
-        <v>0.0656626206233426</v>
+        <v>0.1264104828415498</v>
       </c>
       <c r="E24">
-        <v>1.967538615152051</v>
+        <v>0.06839864199259438</v>
       </c>
       <c r="F24">
-        <v>0.6548386594035378</v>
+        <v>0.7859123379587416</v>
       </c>
       <c r="G24">
-        <v>0.0007774558731151467</v>
+        <v>0.5012124015897257</v>
       </c>
       <c r="H24">
-        <v>0.02548343545092102</v>
+        <v>0.00843834780990696</v>
       </c>
       <c r="I24">
-        <v>0.01297716825878936</v>
+        <v>0.01137551742422183</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4182163529628156</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08171647936050341</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.159137297928027</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1777319869406071</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.2793001176838672</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.754635322995938</v>
+        <v>1.884328548561811</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.125615602166818</v>
+        <v>1.117040389521435</v>
       </c>
       <c r="C25">
-        <v>1.210872665251486</v>
+        <v>0.1769747564968824</v>
       </c>
       <c r="D25">
-        <v>0.05608168448596018</v>
+        <v>0.1084043695718719</v>
       </c>
       <c r="E25">
-        <v>1.611287029704712</v>
+        <v>0.06360627261748597</v>
       </c>
       <c r="F25">
-        <v>0.5640920550256467</v>
+        <v>0.7601887591629719</v>
       </c>
       <c r="G25">
-        <v>0.0007843738772956623</v>
+        <v>0.4894518083172983</v>
       </c>
       <c r="H25">
-        <v>0.01649207729639268</v>
+        <v>0.01263963617338706</v>
       </c>
       <c r="I25">
-        <v>0.007186637996994705</v>
+        <v>0.01601638615712986</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4204094690915312</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07885553243545118</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9595386545048257</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.150761418957913</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2305886274246163</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.549647283128024</v>
+        <v>1.863495154943308</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9417071573089402</v>
+        <v>0.9262016917898848</v>
       </c>
       <c r="C2">
-        <v>0.1696541256453514</v>
+        <v>0.1492166110581294</v>
       </c>
       <c r="D2">
-        <v>0.09498689929725401</v>
+        <v>0.09798837513613279</v>
       </c>
       <c r="E2">
-        <v>0.06031253398336034</v>
+        <v>0.0584244760296535</v>
       </c>
       <c r="F2">
-        <v>0.7482018071317427</v>
+        <v>0.6932282394592661</v>
       </c>
       <c r="G2">
-        <v>0.4866035731314398</v>
+        <v>0.4316997249459646</v>
       </c>
       <c r="H2">
-        <v>0.01643781421194312</v>
+        <v>0.01369854408958568</v>
       </c>
       <c r="I2">
-        <v>0.01940450721135889</v>
+        <v>0.01463670638303416</v>
       </c>
       <c r="J2">
-        <v>0.425235936559524</v>
+        <v>0.4075357845084611</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07694100815397231</v>
+        <v>0.1875056025852544</v>
       </c>
       <c r="M2">
-        <v>0.8093423815752487</v>
+        <v>0.1537986485547744</v>
       </c>
       <c r="N2">
-        <v>0.1297139995274392</v>
+        <v>0.07277427535032732</v>
       </c>
       <c r="O2">
-        <v>0.1945530817500689</v>
+        <v>0.8330384283624994</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1452049374622888</v>
       </c>
       <c r="Q2">
-        <v>1.867177054595061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1961713629309649</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.705099454488888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.820617493405166</v>
+        <v>0.8087875338987658</v>
       </c>
       <c r="C3">
-        <v>0.1654185636844829</v>
+        <v>0.1421869181307827</v>
       </c>
       <c r="D3">
-        <v>0.08611366260664255</v>
+        <v>0.08885935832215353</v>
       </c>
       <c r="E3">
-        <v>0.05791489422945162</v>
+        <v>0.05635284758842118</v>
       </c>
       <c r="F3">
-        <v>0.738365388376593</v>
+        <v>0.6871451834936906</v>
       </c>
       <c r="G3">
-        <v>0.4831774828794195</v>
+        <v>0.4330679700740063</v>
       </c>
       <c r="H3">
-        <v>0.01946303665535387</v>
+        <v>0.01627820697100896</v>
       </c>
       <c r="I3">
-        <v>0.02264893922429367</v>
+        <v>0.0171265155295286</v>
       </c>
       <c r="J3">
-        <v>0.4278528256383325</v>
+        <v>0.4083481643880802</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07540234676346724</v>
+        <v>0.1927236210544869</v>
       </c>
       <c r="M3">
-        <v>0.7093533814056627</v>
+        <v>0.1551550926562264</v>
       </c>
       <c r="N3">
-        <v>0.1163076333638386</v>
+        <v>0.07151334855586633</v>
       </c>
       <c r="O3">
-        <v>0.1702471130496939</v>
+        <v>0.7287690679223857</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1303778786163718</v>
       </c>
       <c r="Q3">
-        <v>1.865116760251865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1715259484269893</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.711844818983451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.746024979955763</v>
+        <v>0.7363486692250945</v>
       </c>
       <c r="C4">
-        <v>0.162825761068234</v>
+        <v>0.1379436492401069</v>
       </c>
       <c r="D4">
-        <v>0.08069743333881974</v>
+        <v>0.08329326026228046</v>
       </c>
       <c r="E4">
-        <v>0.05642847392143935</v>
+        <v>0.05506515806729162</v>
       </c>
       <c r="F4">
-        <v>0.7327742176617917</v>
+        <v>0.6837580292889811</v>
       </c>
       <c r="G4">
-        <v>0.4814271478356105</v>
+        <v>0.4342784889791247</v>
       </c>
       <c r="H4">
-        <v>0.02152424754013149</v>
+        <v>0.01803872264850009</v>
       </c>
       <c r="I4">
-        <v>0.02488152518022391</v>
+        <v>0.01885677338522251</v>
       </c>
       <c r="J4">
-        <v>0.4297059235711629</v>
+        <v>0.4089238719511599</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07441575574503467</v>
+        <v>0.1960278928751009</v>
       </c>
       <c r="M4">
-        <v>0.6479447768988535</v>
+        <v>0.1565276893025569</v>
       </c>
       <c r="N4">
-        <v>0.1081320211539918</v>
+        <v>0.07070032328747899</v>
       </c>
       <c r="O4">
-        <v>0.1553196948219266</v>
+        <v>0.6647791095188182</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1213631735455394</v>
       </c>
       <c r="Q4">
-        <v>1.865109055117983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1563872515866009</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.71696084738565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7152247465356254</v>
+        <v>0.7064112651743812</v>
       </c>
       <c r="C5">
-        <v>0.1618914234920581</v>
+        <v>0.1363871386373461</v>
       </c>
       <c r="D5">
-        <v>0.07852617455930755</v>
+        <v>0.08106232671992331</v>
       </c>
       <c r="E5">
-        <v>0.05579180020235874</v>
+        <v>0.05451059981293938</v>
       </c>
       <c r="F5">
-        <v>0.7300788226928958</v>
+        <v>0.6819695145841109</v>
       </c>
       <c r="G5">
-        <v>0.4803538817431203</v>
+        <v>0.4344549458880209</v>
       </c>
       <c r="H5">
-        <v>0.02241962870013103</v>
+        <v>0.01880427843146243</v>
       </c>
       <c r="I5">
-        <v>0.02594524038684876</v>
+        <v>0.01971730962889673</v>
       </c>
       <c r="J5">
-        <v>0.4302873734991408</v>
+        <v>0.4089512287909329</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07397023894327148</v>
+        <v>0.1972116508832897</v>
       </c>
       <c r="M5">
-        <v>0.623243555776682</v>
+        <v>0.157130507138783</v>
       </c>
       <c r="N5">
-        <v>0.104951661794388</v>
+        <v>0.0703305099800442</v>
       </c>
       <c r="O5">
-        <v>0.1492561182170355</v>
+        <v>0.6390333133899588</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1178495593267712</v>
       </c>
       <c r="Q5">
-        <v>1.863976991698351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1502364543623713</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.717953247661328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7096903987615804</v>
+        <v>0.7010314222109741</v>
       </c>
       <c r="C6">
-        <v>0.1618863709060108</v>
+        <v>0.1363220586017704</v>
       </c>
       <c r="D6">
-        <v>0.07820074970776147</v>
+        <v>0.0807265647536255</v>
       </c>
       <c r="E6">
-        <v>0.0556525093748732</v>
+        <v>0.05438673104354308</v>
       </c>
       <c r="F6">
-        <v>0.7289938004245258</v>
+        <v>0.6810749430062728</v>
       </c>
       <c r="G6">
-        <v>0.4796356913570747</v>
+        <v>0.4339928542459432</v>
       </c>
       <c r="H6">
-        <v>0.02257818909237502</v>
+        <v>0.01894007576229478</v>
       </c>
       <c r="I6">
-        <v>0.02624876930242248</v>
+        <v>0.02000156939041808</v>
       </c>
       <c r="J6">
-        <v>0.430100948948116</v>
+        <v>0.4086805006141603</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07385560026914106</v>
+        <v>0.1971811787320696</v>
       </c>
       <c r="M6">
-        <v>0.6195470896362707</v>
+        <v>0.1571259806686669</v>
       </c>
       <c r="N6">
-        <v>0.1045937911042856</v>
+        <v>0.07023366698427225</v>
       </c>
       <c r="O6">
-        <v>0.1482750553684973</v>
+        <v>0.6351580820507081</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1174372753866706</v>
       </c>
       <c r="Q6">
-        <v>1.862051454514798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1492402115624856</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.716507403763941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7444692231207455</v>
+        <v>0.7348980912835827</v>
       </c>
       <c r="C7">
-        <v>0.1632255683476487</v>
+        <v>0.138381293079874</v>
       </c>
       <c r="D7">
-        <v>0.08076290130065189</v>
+        <v>0.08349923333414466</v>
       </c>
       <c r="E7">
-        <v>0.0563290320646832</v>
+        <v>0.05498039192842086</v>
       </c>
       <c r="F7">
-        <v>0.7309819912026754</v>
+        <v>0.6812393990480814</v>
       </c>
       <c r="G7">
-        <v>0.479926397103057</v>
+        <v>0.4349708641251198</v>
       </c>
       <c r="H7">
-        <v>0.02155415576421987</v>
+        <v>0.0180732042268773</v>
       </c>
       <c r="I7">
-        <v>0.02521528645035787</v>
+        <v>0.01923672809158017</v>
       </c>
       <c r="J7">
-        <v>0.4289334365865329</v>
+        <v>0.4047936690707701</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0743011807324212</v>
+        <v>0.1952046787552995</v>
       </c>
       <c r="M7">
-        <v>0.6487234204022911</v>
+        <v>0.1560882280862117</v>
       </c>
       <c r="N7">
-        <v>0.1085525201031103</v>
+        <v>0.07057776931812398</v>
       </c>
       <c r="O7">
-        <v>0.155308681604712</v>
+        <v>0.6654085060618513</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1217972920815953</v>
       </c>
       <c r="Q7">
-        <v>1.860308530672114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1563921475410943</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.710103327642514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8984780025079431</v>
+        <v>0.8845036132281905</v>
       </c>
       <c r="C8">
-        <v>0.1687548586148324</v>
+        <v>0.147276173096337</v>
       </c>
       <c r="D8">
-        <v>0.09204643649252375</v>
+        <v>0.09543549755414915</v>
       </c>
       <c r="E8">
-        <v>0.05936943888203494</v>
+        <v>0.05763155589020919</v>
       </c>
       <c r="F8">
-        <v>0.7424099674892872</v>
+        <v>0.6861132814955582</v>
       </c>
       <c r="G8">
-        <v>0.4833964957175425</v>
+        <v>0.4371564664242129</v>
       </c>
       <c r="H8">
-        <v>0.01745781114143791</v>
+        <v>0.01459137477017142</v>
       </c>
       <c r="I8">
-        <v>0.02085696529935532</v>
+        <v>0.01591426201605106</v>
       </c>
       <c r="J8">
-        <v>0.4250671819181306</v>
+        <v>0.3959247441901255</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07627873923416484</v>
+        <v>0.1878755486967982</v>
       </c>
       <c r="M8">
-        <v>0.7763535967506812</v>
+        <v>0.1532029677039013</v>
       </c>
       <c r="N8">
-        <v>0.1256961014428128</v>
+        <v>0.07215473087752677</v>
       </c>
       <c r="O8">
-        <v>0.1862660766595639</v>
+        <v>0.7981490322567879</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1407504277837148</v>
       </c>
       <c r="Q8">
-        <v>1.859930568287297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1878279528214541</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.693456210330908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.200753998612726</v>
+        <v>1.177007744589105</v>
       </c>
       <c r="C9">
-        <v>0.17893657401018</v>
+        <v>0.1646102595481835</v>
       </c>
       <c r="D9">
-        <v>0.1142785804782136</v>
+        <v>0.1184851692393352</v>
       </c>
       <c r="E9">
-        <v>0.06538365049421557</v>
+        <v>0.06282897051058001</v>
       </c>
       <c r="F9">
-        <v>0.7716241621933264</v>
+        <v>0.7045337999351915</v>
       </c>
       <c r="G9">
-        <v>0.4957639392004083</v>
+        <v>0.4393956622821378</v>
       </c>
       <c r="H9">
-        <v>0.01108473198538022</v>
+        <v>0.009171064537508239</v>
       </c>
       <c r="I9">
-        <v>0.0138048025703057</v>
+        <v>0.0104697555949862</v>
       </c>
       <c r="J9">
-        <v>0.4208632791926732</v>
+        <v>0.3923480129626995</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08001860454895393</v>
+        <v>0.1761010524555005</v>
       </c>
       <c r="M9">
-        <v>1.024709385809473</v>
+        <v>0.152959698457547</v>
       </c>
       <c r="N9">
-        <v>0.1589734572286403</v>
+        <v>0.07518902236199576</v>
       </c>
       <c r="O9">
-        <v>0.2468624527385792</v>
+        <v>1.057327355663688</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1777721794338731</v>
       </c>
       <c r="Q9">
-        <v>1.877996803122926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2492674386046616</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.685496096865634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.419935245186508</v>
+        <v>1.389351614244191</v>
       </c>
       <c r="C10">
-        <v>0.1878047377383965</v>
+        <v>0.1789194114888275</v>
       </c>
       <c r="D10">
-        <v>0.129095512144545</v>
+        <v>0.1347156507901417</v>
       </c>
       <c r="E10">
-        <v>0.06788850536220892</v>
+        <v>0.06489936200622815</v>
       </c>
       <c r="F10">
-        <v>0.785296308356763</v>
+        <v>0.7064312374225921</v>
       </c>
       <c r="G10">
-        <v>0.4994936341766021</v>
+        <v>0.4491936376882819</v>
       </c>
       <c r="H10">
-        <v>0.007898246866020031</v>
+        <v>0.006533969837631215</v>
       </c>
       <c r="I10">
-        <v>0.01016098367693896</v>
+        <v>0.007822743448940628</v>
       </c>
       <c r="J10">
-        <v>0.4153108859540566</v>
+        <v>0.3697130993971669</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08141299642122846</v>
+        <v>0.1654824191274535</v>
       </c>
       <c r="M10">
-        <v>1.211890313167345</v>
+        <v>0.1525666358710325</v>
       </c>
       <c r="N10">
-        <v>0.1780029758117934</v>
+        <v>0.07628032983129263</v>
       </c>
       <c r="O10">
-        <v>0.2882114582683286</v>
+        <v>1.251445081272777</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.1992796786246132</v>
       </c>
       <c r="Q10">
-        <v>1.874719095218609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2912595243043086</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.652186051129959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.505018395588223</v>
+        <v>1.476872877604961</v>
       </c>
       <c r="C11">
-        <v>0.2036424558754248</v>
+        <v>0.1977696413232621</v>
       </c>
       <c r="D11">
-        <v>0.1208909742006767</v>
+        <v>0.12783721472222</v>
       </c>
       <c r="E11">
-        <v>0.0553089039018122</v>
+        <v>0.05308536298754696</v>
       </c>
       <c r="F11">
-        <v>0.7105588413268507</v>
+        <v>0.6311140336295651</v>
       </c>
       <c r="G11">
-        <v>0.4442871466683869</v>
+        <v>0.424934841333716</v>
       </c>
       <c r="H11">
-        <v>0.02639583944051793</v>
+        <v>0.02513146411440204</v>
       </c>
       <c r="I11">
-        <v>0.009783350270025082</v>
+        <v>0.007835421182482705</v>
       </c>
       <c r="J11">
-        <v>0.3835572029468892</v>
+        <v>0.3164159176738863</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07743758279394086</v>
+        <v>0.1484161431350159</v>
       </c>
       <c r="M11">
-        <v>1.333084810843388</v>
+        <v>0.1371300422388444</v>
       </c>
       <c r="N11">
-        <v>0.1386413478769128</v>
+        <v>0.0745671534327137</v>
       </c>
       <c r="O11">
-        <v>0.278782718819123</v>
+        <v>1.370214876279078</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1567380966816572</v>
       </c>
       <c r="Q11">
-        <v>1.691378039482657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2818137940897998</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.468571016899801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.532137909101493</v>
+        <v>1.507422477074016</v>
       </c>
       <c r="C12">
-        <v>0.2166716419943526</v>
+        <v>0.2114604057841518</v>
       </c>
       <c r="D12">
-        <v>0.1109046607753044</v>
+        <v>0.11806261618392</v>
       </c>
       <c r="E12">
-        <v>0.04711638011016017</v>
+        <v>0.04545064025134238</v>
       </c>
       <c r="F12">
-        <v>0.6500709347692535</v>
+        <v>0.5755673525178935</v>
       </c>
       <c r="G12">
-        <v>0.4015429935423001</v>
+        <v>0.3969260724838222</v>
       </c>
       <c r="H12">
-        <v>0.06528495685797253</v>
+        <v>0.06402599422015953</v>
       </c>
       <c r="I12">
-        <v>0.009607202865859144</v>
+        <v>0.007718824235803723</v>
       </c>
       <c r="J12">
-        <v>0.3601159458053047</v>
+        <v>0.2924235799953259</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08080520085595211</v>
+        <v>0.1388061907549396</v>
       </c>
       <c r="M12">
-        <v>1.395616252749505</v>
+        <v>0.126108716439493</v>
       </c>
       <c r="N12">
-        <v>0.1054991603738245</v>
+        <v>0.07971506221622171</v>
       </c>
       <c r="O12">
-        <v>0.2620922159748602</v>
+        <v>1.429377024146305</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1205716431774988</v>
       </c>
       <c r="Q12">
-        <v>1.551743755329653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2649145466242153</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.343370150815801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.514134067347527</v>
+        <v>1.493705523267096</v>
       </c>
       <c r="C13">
-        <v>0.2287582450930046</v>
+        <v>0.2229188686171</v>
       </c>
       <c r="D13">
-        <v>0.09917210279439814</v>
+        <v>0.1054381746749229</v>
       </c>
       <c r="E13">
-        <v>0.04166161736517493</v>
+        <v>0.040452440137412</v>
       </c>
       <c r="F13">
-        <v>0.5941923775402316</v>
+        <v>0.5301349951012213</v>
       </c>
       <c r="G13">
-        <v>0.3634490217073605</v>
+        <v>0.3584511898149572</v>
       </c>
       <c r="H13">
-        <v>0.1215401241457386</v>
+        <v>0.1202007451138485</v>
       </c>
       <c r="I13">
-        <v>0.009996333722428474</v>
+        <v>0.007985883529370241</v>
       </c>
       <c r="J13">
-        <v>0.3403910659712608</v>
+        <v>0.2850670314054113</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08963412487605993</v>
+        <v>0.1329366709472906</v>
       </c>
       <c r="M13">
-        <v>1.417762841763732</v>
+        <v>0.117589281577013</v>
       </c>
       <c r="N13">
-        <v>0.07609286487759448</v>
+        <v>0.0898979931650139</v>
       </c>
       <c r="O13">
-        <v>0.2390795689945193</v>
+        <v>1.447567232347609</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.08817782945552466</v>
       </c>
       <c r="Q13">
-        <v>1.429661154019854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2414943394230349</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.250306680502405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.480760881544001</v>
+        <v>1.463716198355144</v>
       </c>
       <c r="C14">
-        <v>0.2371961357643215</v>
+        <v>0.2302900649408315</v>
       </c>
       <c r="D14">
-        <v>0.09030401636834284</v>
+        <v>0.09553973454203657</v>
       </c>
       <c r="E14">
-        <v>0.03945620297964147</v>
+        <v>0.03852735876356994</v>
       </c>
       <c r="F14">
-        <v>0.5574054169285461</v>
+        <v>0.5024317060709222</v>
       </c>
       <c r="G14">
-        <v>0.3390410036091751</v>
+        <v>0.3284983970938171</v>
       </c>
       <c r="H14">
-        <v>0.1713583625086414</v>
+        <v>0.1699227781044925</v>
       </c>
       <c r="I14">
-        <v>0.01063197642930813</v>
+        <v>0.008465122891615273</v>
       </c>
       <c r="J14">
-        <v>0.3282983033491433</v>
+        <v>0.2851959737458394</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09908680039127304</v>
+        <v>0.1301829100679921</v>
       </c>
       <c r="M14">
-        <v>1.415295109346431</v>
+        <v>0.1128265930741588</v>
       </c>
       <c r="N14">
-        <v>0.05810334887608448</v>
+        <v>0.09997023512715586</v>
       </c>
       <c r="O14">
-        <v>0.2203083429382957</v>
+        <v>1.442040882372169</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06823087705220843</v>
       </c>
       <c r="Q14">
-        <v>1.352538876051057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2223579958788129</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.197987195116013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.46258314619763</v>
+        <v>1.446538946595268</v>
       </c>
       <c r="C15">
-        <v>0.2390765472768663</v>
+        <v>0.2317503188277499</v>
       </c>
       <c r="D15">
-        <v>0.08779391169547779</v>
+        <v>0.09260766154221045</v>
       </c>
       <c r="E15">
-        <v>0.03913004970705267</v>
+        <v>0.03827311032807967</v>
       </c>
       <c r="F15">
-        <v>0.5486262572871681</v>
+        <v>0.4967252452970641</v>
       </c>
       <c r="G15">
-        <v>0.3334094862825054</v>
+        <v>0.3195528333626783</v>
       </c>
       <c r="H15">
-        <v>0.1841033125078013</v>
+        <v>0.1826190261761695</v>
       </c>
       <c r="I15">
-        <v>0.01105856467190769</v>
+        <v>0.008832025164575263</v>
       </c>
       <c r="J15">
-        <v>0.3258103747266716</v>
+        <v>0.2873754252425798</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1016731242207136</v>
+        <v>0.1299017384345582</v>
       </c>
       <c r="M15">
-        <v>1.406294609754099</v>
+        <v>0.1119969204357307</v>
       </c>
       <c r="N15">
-        <v>0.05401610491830411</v>
+        <v>0.1026209344051985</v>
       </c>
       <c r="O15">
-        <v>0.2144421676355925</v>
+        <v>1.432184012080057</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06366705153732966</v>
       </c>
       <c r="Q15">
-        <v>1.33535717714831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2163655667604871</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.189069417899617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.371278539891961</v>
+        <v>1.35673469902207</v>
       </c>
       <c r="C16">
-        <v>0.2325391721370238</v>
+        <v>0.2237214701082735</v>
       </c>
       <c r="D16">
-        <v>0.08413122680703822</v>
+        <v>0.08748260459461932</v>
       </c>
       <c r="E16">
-        <v>0.03920338205613511</v>
+        <v>0.0384193712839721</v>
       </c>
       <c r="F16">
-        <v>0.5532010244864836</v>
+        <v>0.5088087669235293</v>
       </c>
       <c r="G16">
-        <v>0.3385754460073898</v>
+        <v>0.3086569239891261</v>
       </c>
       <c r="H16">
-        <v>0.1727159927280013</v>
+        <v>0.1709707750909217</v>
       </c>
       <c r="I16">
-        <v>0.01265294324228972</v>
+        <v>0.01003033859272762</v>
       </c>
       <c r="J16">
-        <v>0.3315362034658591</v>
+        <v>0.3099474493680816</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09884671177848858</v>
+        <v>0.1340610057640328</v>
       </c>
       <c r="M16">
-        <v>1.320603166561511</v>
+        <v>0.1154221982395338</v>
       </c>
       <c r="N16">
-        <v>0.05278526308030251</v>
+        <v>0.0992963052558764</v>
       </c>
       <c r="O16">
-        <v>0.2019888687062839</v>
+        <v>1.345511902201878</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06216470525713191</v>
       </c>
       <c r="Q16">
-        <v>1.358111540031658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2035835013451255</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.231155871385255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.319060664197224</v>
+        <v>1.303963971502242</v>
       </c>
       <c r="C17">
-        <v>0.2229783281285336</v>
+        <v>0.2135058901890403</v>
       </c>
       <c r="D17">
-        <v>0.08597145859660316</v>
+        <v>0.08887047314611607</v>
       </c>
       <c r="E17">
-        <v>0.04016436083909913</v>
+        <v>0.03927452575116863</v>
       </c>
       <c r="F17">
-        <v>0.5759652275337572</v>
+        <v>0.5322708084164205</v>
       </c>
       <c r="G17">
-        <v>0.3552972636549043</v>
+        <v>0.3172804125741635</v>
       </c>
       <c r="H17">
-        <v>0.1357427899214514</v>
+        <v>0.1338486083401875</v>
       </c>
       <c r="I17">
-        <v>0.01358435806113611</v>
+        <v>0.01074435569216714</v>
       </c>
       <c r="J17">
-        <v>0.3422983306002223</v>
+        <v>0.3277643957341638</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09112851912048114</v>
+        <v>0.1391090913185486</v>
       </c>
       <c r="M17">
-        <v>1.256467901842058</v>
+        <v>0.1202787298852481</v>
       </c>
       <c r="N17">
-        <v>0.06086465769069349</v>
+        <v>0.09103150103258884</v>
       </c>
       <c r="O17">
-        <v>0.2022965954852332</v>
+        <v>1.282048511048004</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07098503312986537</v>
       </c>
       <c r="Q17">
-        <v>1.415983747417854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2038507387379234</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.290264534770287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.295302076389504</v>
+        <v>1.277740452081957</v>
       </c>
       <c r="C18">
-        <v>0.2100745630577592</v>
+        <v>0.2003908193708526</v>
       </c>
       <c r="D18">
-        <v>0.09285100619091935</v>
+        <v>0.0958178750665013</v>
       </c>
       <c r="E18">
-        <v>0.04342262917643858</v>
+        <v>0.04221074403128933</v>
       </c>
       <c r="F18">
-        <v>0.6196883293767712</v>
+        <v>0.5720132340736654</v>
       </c>
       <c r="G18">
-        <v>0.3860876945198299</v>
+        <v>0.3410478804099526</v>
       </c>
       <c r="H18">
-        <v>0.08312667432142717</v>
+        <v>0.08118964567501052</v>
       </c>
       <c r="I18">
-        <v>0.01362784918198656</v>
+        <v>0.01066656395201004</v>
       </c>
       <c r="J18">
-        <v>0.359676594513445</v>
+        <v>0.3465626976965694</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0815233630351635</v>
+        <v>0.146480637159133</v>
       </c>
       <c r="M18">
-        <v>1.202997587916371</v>
+        <v>0.1276620975465441</v>
       </c>
       <c r="N18">
-        <v>0.08014457021660348</v>
+        <v>0.08059327496468782</v>
       </c>
       <c r="O18">
-        <v>0.2137279158880112</v>
+        <v>1.230936036606721</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.09208538768821484</v>
       </c>
       <c r="Q18">
-        <v>1.517588291973368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2154552468893449</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.380550401277972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.293750907614225</v>
+        <v>1.272443324704994</v>
       </c>
       <c r="C19">
-        <v>0.1983587463806131</v>
+        <v>0.1886377811025852</v>
       </c>
       <c r="D19">
-        <v>0.1037618292843518</v>
+        <v>0.1071205430976931</v>
       </c>
       <c r="E19">
-        <v>0.05031477767873582</v>
+        <v>0.04856141824058469</v>
       </c>
       <c r="F19">
-        <v>0.6772626850726056</v>
+        <v>0.6223316374757104</v>
       </c>
       <c r="G19">
-        <v>0.4260421232334366</v>
+        <v>0.3737189576932423</v>
       </c>
       <c r="H19">
-        <v>0.03733561395963392</v>
+        <v>0.03546845758451411</v>
       </c>
       <c r="I19">
-        <v>0.01352667112499351</v>
+        <v>0.01064616108102889</v>
       </c>
       <c r="J19">
-        <v>0.3809731934813527</v>
+        <v>0.3657849979816774</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07601626456822075</v>
+        <v>0.1553417825915542</v>
       </c>
       <c r="M19">
-        <v>1.164938314012431</v>
+        <v>0.1367262297076177</v>
       </c>
       <c r="N19">
-        <v>0.1114765306164927</v>
+        <v>0.07380891563289538</v>
       </c>
       <c r="O19">
-        <v>0.2337948505526164</v>
+        <v>1.196352360113281</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1262685997663198</v>
       </c>
       <c r="Q19">
-        <v>1.646872156421182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2358494037394934</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.489776724679615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.358702264812507</v>
+        <v>1.329913054823237</v>
       </c>
       <c r="C20">
-        <v>0.1869840273369405</v>
+        <v>0.1774406202236065</v>
       </c>
       <c r="D20">
-        <v>0.1254172968599221</v>
+        <v>0.1301277566073225</v>
       </c>
       <c r="E20">
-        <v>0.06688585488994647</v>
+        <v>0.06399766739690804</v>
       </c>
       <c r="F20">
-        <v>0.775833982170667</v>
+        <v>0.703564490800467</v>
       </c>
       <c r="G20">
-        <v>0.4936183605536968</v>
+        <v>0.4346338868851376</v>
       </c>
       <c r="H20">
-        <v>0.008680084732129778</v>
+        <v>0.007163181014552045</v>
       </c>
       <c r="I20">
-        <v>0.01195923391886566</v>
+        <v>0.009506144791053828</v>
       </c>
       <c r="J20">
-        <v>0.4142143977106869</v>
+        <v>0.3841099171753797</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.08070901264185082</v>
+        <v>0.1674350536905411</v>
       </c>
       <c r="M20">
-        <v>1.166446482418309</v>
+        <v>0.1517223725053789</v>
       </c>
       <c r="N20">
-        <v>0.1741891357386933</v>
+        <v>0.07579197591714593</v>
       </c>
       <c r="O20">
-        <v>0.2774346557872605</v>
+        <v>1.204553561617871</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.1947491832527604</v>
       </c>
       <c r="Q20">
-        <v>1.859854067846214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2802424010316642</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.655330484661008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.529606697082983</v>
+        <v>1.495566913824177</v>
       </c>
       <c r="C21">
-        <v>0.1919523708338318</v>
+        <v>0.1849761558132599</v>
       </c>
       <c r="D21">
-        <v>0.1395246705126141</v>
+        <v>0.1483396443448299</v>
       </c>
       <c r="E21">
-        <v>0.07164789551282169</v>
+        <v>0.06846270786752662</v>
       </c>
       <c r="F21">
-        <v>0.8028503333573411</v>
+        <v>0.7036575961583651</v>
       </c>
       <c r="G21">
-        <v>0.5083722610849719</v>
+        <v>0.4947097400218183</v>
       </c>
       <c r="H21">
-        <v>0.006060903919771377</v>
+        <v>0.005004832276373994</v>
       </c>
       <c r="I21">
-        <v>0.009287827104346391</v>
+        <v>0.00759484670959143</v>
       </c>
       <c r="J21">
-        <v>0.4161478446082469</v>
+        <v>0.3234469981424368</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08350638584906989</v>
+        <v>0.1593931607486123</v>
       </c>
       <c r="M21">
-        <v>1.303698480292212</v>
+        <v>0.1514804241789349</v>
       </c>
       <c r="N21">
-        <v>0.1979569563433472</v>
+        <v>0.07754508434057694</v>
       </c>
       <c r="O21">
-        <v>0.3142256705506199</v>
+        <v>1.345623500463432</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2216295716096255</v>
       </c>
       <c r="Q21">
-        <v>1.895511044043303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.317956215409211</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.617666276301776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.642029755815059</v>
+        <v>1.604776543175149</v>
       </c>
       <c r="C22">
-        <v>0.1951639062044919</v>
+        <v>0.1897219816023465</v>
       </c>
       <c r="D22">
-        <v>0.1477689244378837</v>
+        <v>0.1595678216093148</v>
       </c>
       <c r="E22">
-        <v>0.07394561192824511</v>
+        <v>0.07065301141635416</v>
       </c>
       <c r="F22">
-        <v>0.8184446668894907</v>
+        <v>0.7006904328744952</v>
       </c>
       <c r="G22">
-        <v>0.516932060932362</v>
+        <v>0.5406956561408265</v>
       </c>
       <c r="H22">
-        <v>0.004751809706625199</v>
+        <v>0.003938850907995395</v>
       </c>
       <c r="I22">
-        <v>0.007488933591917935</v>
+        <v>0.006154779614322869</v>
       </c>
       <c r="J22">
-        <v>0.416905108042144</v>
+        <v>0.2903682952953126</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08486759886290507</v>
+        <v>0.1540129108765615</v>
       </c>
       <c r="M22">
-        <v>1.393997161618273</v>
+        <v>0.1511114075568045</v>
       </c>
       <c r="N22">
-        <v>0.2098858458497972</v>
+        <v>0.07833851552175908</v>
       </c>
       <c r="O22">
-        <v>0.3365482887485882</v>
+        <v>1.438014926304589</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2353783274468526</v>
       </c>
       <c r="Q22">
-        <v>1.915452169677451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3408824644510489</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.587119680414503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.583435716815245</v>
+        <v>1.547694816933841</v>
       </c>
       <c r="C23">
-        <v>0.1928840468022486</v>
+        <v>0.1865971271564746</v>
       </c>
       <c r="D23">
-        <v>0.1432507557719163</v>
+        <v>0.1530346275889798</v>
       </c>
       <c r="E23">
-        <v>0.07282401754072687</v>
+        <v>0.06954772462351322</v>
       </c>
       <c r="F23">
-        <v>0.8120775577016204</v>
+        <v>0.7061724950168582</v>
       </c>
       <c r="G23">
-        <v>0.5140142822905887</v>
+        <v>0.5110270798793266</v>
       </c>
       <c r="H23">
-        <v>0.005419930648003279</v>
+        <v>0.004476271634708373</v>
       </c>
       <c r="I23">
-        <v>0.008074772582634004</v>
+        <v>0.00648742225090615</v>
       </c>
       <c r="J23">
-        <v>0.4173493663650447</v>
+        <v>0.3125614131643175</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08426001615473133</v>
+        <v>0.1576231652211586</v>
       </c>
       <c r="M23">
-        <v>1.344422654636531</v>
+        <v>0.1522910376514481</v>
       </c>
       <c r="N23">
-        <v>0.2029490551669824</v>
+        <v>0.07805154504656731</v>
       </c>
       <c r="O23">
-        <v>0.3245479682444241</v>
+        <v>1.387651886142379</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2274075072912751</v>
       </c>
       <c r="Q23">
-        <v>1.910085619964804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3285119174290827</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.613973773674033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.35916916701558</v>
+        <v>1.329948535199833</v>
       </c>
       <c r="C24">
-        <v>0.1852127049046217</v>
+        <v>0.1751782138494917</v>
       </c>
       <c r="D24">
-        <v>0.1264104828415498</v>
+        <v>0.131147746259046</v>
       </c>
       <c r="E24">
-        <v>0.06839864199259438</v>
+        <v>0.06541876157073823</v>
       </c>
       <c r="F24">
-        <v>0.7859123379587416</v>
+        <v>0.7125762478553455</v>
       </c>
       <c r="G24">
-        <v>0.5012124015897257</v>
+        <v>0.4408222125145116</v>
       </c>
       <c r="H24">
-        <v>0.00843834780990696</v>
+        <v>0.006934077432101032</v>
       </c>
       <c r="I24">
-        <v>0.01137551742422183</v>
+        <v>0.008830402097460777</v>
       </c>
       <c r="J24">
-        <v>0.4182163529628156</v>
+        <v>0.3880354766164089</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08171647936050341</v>
+        <v>0.1694141346646063</v>
       </c>
       <c r="M24">
-        <v>1.159137297928027</v>
+        <v>0.1537293433628726</v>
       </c>
       <c r="N24">
-        <v>0.1777319869406071</v>
+        <v>0.07654551597478143</v>
       </c>
       <c r="O24">
-        <v>0.2793001176838672</v>
+        <v>1.197556956312098</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.1986524665295661</v>
       </c>
       <c r="Q24">
-        <v>1.884328548561811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2821434286588556</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.676682814024005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.117040389521435</v>
+        <v>1.096029980484815</v>
       </c>
       <c r="C25">
-        <v>0.1769747564968824</v>
+        <v>0.161042535640469</v>
       </c>
       <c r="D25">
-        <v>0.1084043695718719</v>
+        <v>0.112173981123874</v>
       </c>
       <c r="E25">
-        <v>0.06360627261748597</v>
+        <v>0.06127070112209054</v>
       </c>
       <c r="F25">
-        <v>0.7601887591629719</v>
+        <v>0.6975561608578573</v>
       </c>
       <c r="G25">
-        <v>0.4894518083172983</v>
+        <v>0.4331039150185489</v>
       </c>
       <c r="H25">
-        <v>0.01263963617338706</v>
+        <v>0.01048313738054688</v>
       </c>
       <c r="I25">
-        <v>0.01601638615712986</v>
+        <v>0.01235064869149927</v>
       </c>
       <c r="J25">
-        <v>0.4204094690915312</v>
+        <v>0.396557185558386</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07885553243545118</v>
+        <v>0.1786231120485624</v>
       </c>
       <c r="M25">
-        <v>0.9595386545048257</v>
+        <v>0.1520555526229384</v>
       </c>
       <c r="N25">
-        <v>0.150761418957913</v>
+        <v>0.07427765047733459</v>
       </c>
       <c r="O25">
-        <v>0.2305886274246163</v>
+        <v>0.9893453272544832</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1685059873849681</v>
       </c>
       <c r="Q25">
-        <v>1.863495154943308</v>
+        <v>0.2327399730296129</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.68251396237352</v>
       </c>
     </row>
   </sheetData>
